--- a/biology/Microbiologie/Bacillus/Bacillus.xlsx
+++ b/biology/Microbiologie/Bacillus/Bacillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bacillus est un genre de bactéries à Gram positif, appartenant à la famille des bacillacées (Bacillaceae), l’ordre des caryophanales et la classe des bacilles (Bacilli).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De forme bacilles, les dimensions de ces bactéries sont variables ; elles peuvent aller de (0.5 × 1.2 µm) à (2.5 × 10 µm). Elles sont aérobies ou aéro-anaérobies facultatives, et tirent leur énergie par respiration ou fermentation. Ces bactéries sont capables de produire des endospores leur permettant de résister à des conditions environnementales défavorables. Celles-ci donneront naissance à de nouvelles bactéries en cas de conditions favorables.
 Les Bacillus sont hétérotrophes, saprophytes et ubiquitaires. Elles sont fréquemment retrouvées dans le sol où certaines espèces ont un rôle dans le cycle du carbone et de l'azote. On peut trouver des Bacillus dans des denrées alimentaires.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il en existe un grand nombre d'espèces avec des propriétés physiologiques et des habitats très variés (terre, poussière, etc.). Certaines espèces sont trouvées dans l'eau douce, d'autres dans l'eau de mer. Il existe des espèces thermophiles, acidophiles, psychrophiles, alcalinophiles. Les espèces saprophytes sont responsables de multiples dégradations de produits alimentaires (sûrissement et caillage du lait, etc.). Certains d'entre eux ont des rôles utiles comme producteurs d'antibiotiques (tyrothricine, polymyxines, bacitracine...) ou d'antifongiques (mycosubtiline).
 Bacillus anthracis, responsable de la maladie du charbon.
@@ -584,18 +600,89 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bacillus Cohn 1872[1].
-L'espèce type est : Bacillus subtilis (Ehrenberg 1835) Cohn 1872[1].
-Bacillus a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Bacillus Cohn 1872.
+L'espèce type est : Bacillus subtilis (Ehrenberg 1835) Cohn 1872.
+Bacillus a pour synonymes :
 Maribacillus Liu et al. 2019
 Pseudobacillus Verma et al. 2019
-Quasibacillus Verma et al. 2017
-Étymologie
-L'étymologie du nom générique des Bacillus est la suivante : Ba.cil’lus. L. masc. n. Bacillus, un bâtonnet, une baguette, une tige ce qui se rapporte à sa forme[1].
-Liste des espèces
-Selon LPSN  (23 octobre 2023)[1] :
+Quasibacillus Verma et al. 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bacillus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bacillus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom générique des Bacillus est la suivante : Ba.cil’lus. L. masc. n. Bacillus, un bâtonnet, une baguette, une tige ce qui se rapporte à sa forme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bacillus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bacillus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (23 octobre 2023) :
 Bacillus albus Liu et al. 2017
 Bacillus alkalicellulosilyticus Liu et al. 2022
 Bacillus alkalicola Zhai et al. 2022
@@ -706,31 +793,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bacillus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bacillus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Matrice d'identification des bactéries du genre Bacillus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'un caractère chez 100 % des souches est notée par 1 ou "+1", et l'absence chez 100 % des souches de ce caractère par "-1" et le caractère variable à 50 % par "0" ou une cellule vide. L'absence d'information correspond à une case vide. La variabilité des autres caractères est calculée selon la formule :
         y
